--- a/database.xlsx
+++ b/database.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -447,7 +447,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Shaurya</t>
+          <t>Ashvik</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>Shaurya</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ashvik</t>
+          <t>NULL</t>
         </is>
       </c>
     </row>
@@ -542,10 +542,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -569,35 +569,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ashvik</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+          <t>Shaurya</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9788177002300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Shaurya</t>
+          <t>Pradhyumna</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9788172345136</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pradhyumna</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
+        <v>9788175992832</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -46,10 +46,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,27 +394,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="34.85546875" customWidth="1" style="1" min="1" max="1"/>
-    <col width="30.5703125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="15.42578125" customWidth="1" style="2" min="3" max="3"/>
-    <col width="15" customWidth="1" style="2" min="4" max="4"/>
+    <col width="38" customWidth="1" style="1" min="1" max="1"/>
+    <col width="30.5703125" customWidth="1" style="1" min="2" max="2"/>
+    <col width="32.140625" customWidth="1" style="2" min="3" max="3"/>
+    <col width="20" customWidth="1" style="2" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>ISBN</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
@@ -430,12 +431,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>817450494X</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="3" t="n">
+        <v>817450494</v>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Chemistry - Part I</t>
         </is>
@@ -447,15 +446,15 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Ashvik</t>
+          <t>Shaurya</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="3" t="n">
         <v>8174504940</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>Chemistry - Part II</t>
         </is>
@@ -472,10 +471,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="3" t="n">
         <v>9788177002300</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>Computer Science with Python</t>
         </is>
@@ -492,10 +491,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="3" t="n">
         <v>9788172345136</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>Metamorphosis</t>
         </is>
@@ -512,10 +511,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="3" t="n">
         <v>9788175992832</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>War and Peace</t>
         </is>
@@ -528,6 +527,204 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>Pradhyumna</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>9780439708180</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Harry Potter</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>J.K. Rowling</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>9780061120084</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>To Kill a Mockingbird</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Harper Lee</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Keshav</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>9780743273565</v>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>The Great Gatsby</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>F. Scott Fitzgerald</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>9780307277671</v>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>The Road</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Cormac McCarthy</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9780385472579</v>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Things Fall Apart</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chinua Achebe</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>9780547928227</v>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>The Hobbit</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>J.R.R. Tolkien</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>9780141439600</v>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Pride and Prejudice</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Jane Austen</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>9780316769488</v>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>The Catcher in the Rye</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>J.D. Salinger</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>9781503290563</v>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Emma</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Jane Austen</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>9780451524935</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>George Orwell</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NULL</t>
         </is>
       </c>
     </row>
@@ -542,10 +739,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -573,7 +770,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9788177002300</v>
+        <v>817450494</v>
       </c>
     </row>
     <row r="3">
@@ -584,6 +781,148 @@
       </c>
       <c r="B3" t="n">
         <v>9788175992832</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ashvik</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kaushik</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Namit</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Charak</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sreekar</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bharath</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Riya</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Vignesh</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Keshav</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9780061120084</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Rithul</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Madhumita</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Bhargav</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10320" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Books" sheetId="1" state="visible" r:id="rId1"/>
@@ -396,8 +396,8 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -486,7 +486,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Shaurya</t>
+          <t>NULL</t>
         </is>
       </c>
     </row>
@@ -741,8 +741,8 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
